--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU_THEO_CHI_PHI.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU_THEO_CHI_PHI.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2SProject\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593E4B14-8630-4BEE-A9BB-7DC1446B1AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doanh thu giá dịch vụ" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>BÁO CÁO TỔNG HỢP KẾ HOẠCH DOANH THU</t>
   </si>
@@ -72,12 +73,15 @@
   </si>
   <si>
     <t>HÃNG HK</t>
+  </si>
+  <si>
+    <t>BÁO CÁO TỔNG HỢP KẾ HOẠCH DOANH THU THEO PHÍ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,13 +161,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -446,39 +450,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="17.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" customWidth="1"/>
+    <col min="1" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -505,56 +498,56 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -565,35 +558,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" customWidth="1"/>
-    <col min="10" max="11" width="17.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="17.21875" customWidth="1"/>
+    <col min="1" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -620,56 +606,56 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -680,36 +666,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" customWidth="1"/>
-    <col min="5" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="1" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
@@ -736,56 +714,56 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -796,32 +774,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:XFD7"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.109375" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="12" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="1" max="14" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -853,56 +822,56 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="5" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU_THEO_CHI_PHI.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU_THEO_CHI_PHI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593E4B14-8630-4BEE-A9BB-7DC1446B1AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AFF7B-4EC9-4BF1-992D-DAEA37D97A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doanh thu giá dịch vụ" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Doanh thu tiền nhiên liệu" sheetId="3" r:id="rId3"/>
     <sheet name="Tổng doanh thu" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -167,6 +167,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,33 +457,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:I3"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="20.7109375" customWidth="1"/>
+    <col min="1" max="14" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -487,22 +493,22 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -546,8 +552,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -559,33 +569,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="20.7109375" customWidth="1"/>
+    <col min="1" max="14" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -595,22 +605,22 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -654,8 +664,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -667,33 +682,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="20.7109375" customWidth="1"/>
+    <col min="1" max="14" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -703,22 +718,22 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -762,8 +777,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -775,33 +795,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="20.7109375" customWidth="1"/>
+    <col min="1" max="14" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -811,22 +831,22 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -870,8 +890,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU_THEO_CHI_PHI.xlsx
+++ b/SMO/TemplateExcel/TONG_HOP_KE_HOACH_DOANH_THU_THEO_CHI_PHI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S_PRỌECT\BPS_SKYPEC\SMO\TemplateExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11AFF7B-4EC9-4BF1-992D-DAEA37D97A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE709FDF-DD2B-4B0A-A61D-E0F240BE4401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Doanh thu giá dịch vụ" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +110,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -120,7 +127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -165,9 +172,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -177,12 +181,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -459,31 +471,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -493,70 +506,70 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
       <c r="B8" s="5"/>
     </row>
   </sheetData>
@@ -575,27 +588,28 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:B8"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -605,70 +619,70 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
@@ -688,27 +702,28 @@
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7:B8"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -718,70 +733,70 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
@@ -797,31 +812,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="20.6640625" customWidth="1"/>
+    <col min="1" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -831,70 +847,70 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
